--- a/TashqiBlok.xlsx
+++ b/TashqiBlok.xlsx
@@ -14,9 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>113ekbax</t>
+    <t>113EAMAA</t>
+  </si>
+  <si>
+    <t>113EDVAA</t>
+  </si>
+  <si>
+    <t>113EDDAA</t>
+  </si>
+  <si>
+    <t>113ECQAA</t>
+  </si>
+  <si>
+    <t>113EFSAA</t>
+  </si>
+  <si>
+    <t>113EG3AA</t>
+  </si>
+  <si>
+    <t>113EGIAA</t>
   </si>
 </sst>
 </file>
@@ -24,12 +42,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,10 +56,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -53,15 +161,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,109 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,197 +215,247 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -396,6 +470,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,30 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -471,31 +536,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,136 +559,142 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -955,31 +1015,71 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.66666666666667"/>
+    <col min="1" max="1" width="12.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" ht="15.6" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>12345678</v>
+    <row r="2" ht="15.6" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="16.35" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
